--- a/trunk/ projet-ia/tests/Resultats/Resultat_Simu_hsoleil.xlsx
+++ b/trunk/ projet-ia/tests/Resultats/Resultat_Simu_hsoleil.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="9075" windowHeight="7395" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="9075" windowHeight="7395"/>
   </bookViews>
   <sheets>
     <sheet name="Simu_hsoleil" sheetId="1" r:id="rId1"/>
@@ -637,355 +637,355 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.52</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.52</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.52</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.52</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.94</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.94</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.94</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.94</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.13</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.13</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.13</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.13</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>2.21</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="95">
                   <c:v>2.21</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="96">
                   <c:v>2.21</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="97">
                   <c:v>2.21</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="98">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>2.57</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="111">
                   <c:v>2.57</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="112">
                   <c:v>2.57</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="113">
                   <c:v>2.57</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="114">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="118">
                   <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.13</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.13</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.13</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.52</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.52</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.52</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.52</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.64</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.64</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.64</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.64</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.41</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.41</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.41</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.41</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4.21</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>4.21</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.21</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4.21</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.44</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.44</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.44</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.44</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2.57</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2.57</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.57</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.57</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>3.28</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>3.28</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3.28</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3.28</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>3.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,361 +1041,361 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.65</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.65</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.65</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.65</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>2.17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.18</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.18</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.18</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.18</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.53</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.53</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.53</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.53</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.26</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.26</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.26</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.26</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.99</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.99</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.99</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.99</c:v>
+                  <c:v>2.39</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.71</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.71</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.71</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.71</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.19</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.19</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.19</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.19</c:v>
+                  <c:v>2.35</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.79</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.79</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.79</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.79</c:v>
+                  <c:v>3.06</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.58</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.58</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.58</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.58</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.92</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.92</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.92</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.92</c:v>
+                  <c:v>1.99</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.13</c:v>
+                  <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.13</c:v>
+                  <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.13</c:v>
+                  <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.13</c:v>
+                  <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.72</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.72</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.72</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.72</c:v>
+                  <c:v>3.01</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>6.58</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.58</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.58</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.58</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.33</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.33</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.33</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.33</c:v>
+                  <c:v>2.13</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.78</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.78</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.78</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.78</c:v>
+                  <c:v>2.97</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.11</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.11</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.11</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.11</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.58</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.58</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.58</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.58</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.53</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.53</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.53</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.53</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.9800000000000004</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.9800000000000004</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.9800000000000004</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.9800000000000004</c:v>
+                  <c:v>1.28</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.58</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.58</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.58</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.58</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.93</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.93</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.93</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.93</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.71</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.71</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.71</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.71</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.12</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.12</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.12</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.12</c:v>
+                  <c:v>2.92</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.65</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.65</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.65</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.65</c:v>
+                  <c:v>1.06</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.98</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.98</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.98</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.98</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6.24</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6.24</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6.24</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6.24</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.66</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.66</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.66</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.66</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.38</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6.38</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>6.38</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,364 +1426,364 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="41">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="42">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="43">
                   <c:v>2.39</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="44">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="97">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="98">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="99">
                   <c:v>0.89</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.86</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.46</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.28</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.28</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.28</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.28</c:v>
-                </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="100">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>3.41</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="105">
                   <c:v>3.41</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="106">
                   <c:v>3.41</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="107">
                   <c:v>3.41</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.51</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.99</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2.21</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2.21</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2.21</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2.21</c:v>
-                </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.37</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.37</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.37</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.37</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.48</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.48</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.48</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.48</c:v>
+                  <c:v>2.79</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.08</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.08</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.08</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.08</c:v>
+                  <c:v>2.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,358 +1827,358 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>2.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31</c:v>
+                  <c:v>1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.39</c:v>
+                  <c:v>4.38</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.39</c:v>
+                  <c:v>4.38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.39</c:v>
+                  <c:v>4.38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.39</c:v>
+                  <c:v>4.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.37</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.37</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.37</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.37</c:v>
+                  <c:v>1.82</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.99</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.99</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.99</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.99</c:v>
+                  <c:v>1.86</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.61</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.61</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.61</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.61</c:v>
+                  <c:v>3.14</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.72</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="74">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="75">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="76">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.12</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.12</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.12</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.12</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="77">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.23</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="90">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="91">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="92">
                   <c:v>0.62</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.17</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.03</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="93">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="109">
                   <c:v>3.19</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="110">
                   <c:v>3.19</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="111">
                   <c:v>3.19</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="112">
                   <c:v>3.19</c:v>
                 </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.06</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.73</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3.94</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>3.94</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>3.94</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3.94</c:v>
-                </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.75</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.01</c:v>
+                  <c:v>4.21</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.01</c:v>
+                  <c:v>4.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2576,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="B109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,11 +2613,11 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.39</v>
+        <v>1.86</v>
       </c>
       <c r="D2">
         <f>IF(B2=0,C2,"")</f>
-        <v>2.39</v>
+        <v>1.86</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2641,15 +2641,15 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.65</v>
+        <v>1.82</v>
       </c>
       <c r="D3">
         <f>IF(B3=0,C3,D2)</f>
-        <v>2.39</v>
+        <v>1.86</v>
       </c>
       <c r="E3">
         <f>IF(B3=1,C3,E2)</f>
-        <v>5.65</v>
+        <v>1.82</v>
       </c>
       <c r="F3">
         <f>IF(B3=2,C3,F2)</f>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="0">IF(D3&gt;E3,"ENSOLEILLE",(IF(E3&gt;F3,"COUVERT",(IF(F3&gt;G3,"PLUIE","GRELE")))))</f>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2671,19 +2671,19 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>2.52</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:D67" si="1">IF(B4=0,C4,D3)</f>
-        <v>2.39</v>
+        <v>1.86</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E67" si="2">IF(B4=1,C4,E3)</f>
-        <v>5.65</v>
+        <v>1.82</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F67" si="3">IF(B4=2,C4,F3)</f>
-        <v>0.8</v>
+        <v>2.52</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G67" si="4">IF(B4=3,C4,G3)</f>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,27 +2702,27 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>2.39</v>
+        <v>1.86</v>
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>5.65</v>
+        <v>1.82</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>2.52</v>
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2733,27 +2733,27 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.13</v>
+        <v>4.07</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>4.07</v>
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>5.65</v>
+        <v>1.82</v>
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>2.52</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2764,23 +2764,23 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7.0000000000000007E-2</v>
+        <v>2.17</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>4.07</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>2.17</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>2.52</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -2795,23 +2795,23 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.31</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>4.07</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>2.17</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0.31</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>2.52</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -2826,23 +2826,23 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3.94</v>
+        <v>1.37</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.13</v>
+        <v>4.07</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>2.17</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>0.31</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>3.94</v>
+        <v>1.37</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -2857,23 +2857,23 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.89</v>
+        <v>4.03</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.89</v>
+        <v>4.03</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>7.0000000000000007E-2</v>
+        <v>2.17</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>0.31</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>3.94</v>
+        <v>1.37</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -2888,27 +2888,27 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>4.18</v>
+        <v>3.45</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0.89</v>
+        <v>4.03</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>4.18</v>
+        <v>3.45</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0.31</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>3.94</v>
+        <v>1.37</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2919,27 +2919,27 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>2.39</v>
+        <v>4.38</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.89</v>
+        <v>4.03</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>4.18</v>
+        <v>3.45</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>2.39</v>
+        <v>4.38</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>3.94</v>
+        <v>1.37</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2950,27 +2950,27 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2.13</v>
+        <v>0.49</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0.89</v>
+        <v>4.03</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>4.18</v>
+        <v>3.45</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>2.39</v>
+        <v>4.38</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>2.13</v>
+        <v>0.49</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2981,27 +2981,27 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>4.18</v>
+        <v>3.45</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>2.39</v>
+        <v>4.38</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>2.13</v>
+        <v>0.49</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,23 +3012,23 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>2.39</v>
+        <v>4.38</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>2.13</v>
+        <v>0.49</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -3043,23 +3043,23 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>2.13</v>
+        <v>0.49</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -3074,23 +3074,23 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>0.49</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -3105,27 +3105,27 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1.51</v>
+        <v>3.85</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>1.51</v>
+        <v>3.85</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -3136,23 +3136,23 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>1.26</v>
+        <v>0.4</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>1.51</v>
+        <v>3.85</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>1.26</v>
+        <v>0.4</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -3167,23 +3167,23 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>3.37</v>
+        <v>1.82</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>1.51</v>
+        <v>3.85</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>1.26</v>
+        <v>0.4</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>3.37</v>
+        <v>1.82</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>2.21</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -3198,23 +3198,23 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.71</v>
+        <v>4.12</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1.51</v>
+        <v>3.85</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>1.26</v>
+        <v>0.4</v>
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>3.37</v>
+        <v>1.82</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>0.71</v>
+        <v>4.12</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -3229,23 +3229,23 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.46</v>
+        <v>3.5</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>1.46</v>
+        <v>3.5</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>1.26</v>
+        <v>0.4</v>
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>3.37</v>
+        <v>1.82</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
-        <v>0.71</v>
+        <v>4.12</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -3260,27 +3260,27 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>3.99</v>
+        <v>2.39</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.46</v>
+        <v>3.5</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>3.99</v>
+        <v>2.39</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>3.37</v>
+        <v>1.82</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>0.71</v>
+        <v>4.12</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3291,27 +3291,27 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>1.46</v>
+        <v>3.5</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>3.99</v>
+        <v>2.39</v>
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>0.71</v>
+        <v>4.12</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3322,27 +3322,27 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>2.2999999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1.46</v>
+        <v>3.5</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>3.99</v>
+        <v>2.39</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3353,23 +3353,23 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>3.99</v>
+        <v>2.39</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -3384,23 +3384,23 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>5.71</v>
+        <v>1.9</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>5.71</v>
+        <v>1.9</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -3415,27 +3415,27 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>2.61</v>
+        <v>3.14</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>5.71</v>
+        <v>1.9</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>2.61</v>
+        <v>3.14</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>2.2999999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -3446,27 +3446,27 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>3.99</v>
+        <v>3.06</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>5.71</v>
+        <v>1.9</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>2.61</v>
+        <v>3.14</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>3.99</v>
+        <v>3.06</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -3477,27 +3477,27 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.22</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>0.22</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>5.71</v>
+        <v>1.9</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>2.61</v>
+        <v>3.14</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>3.99</v>
+        <v>3.06</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -3508,27 +3508,27 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>0.22</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>2.61</v>
+        <v>3.14</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>3.99</v>
+        <v>3.06</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
-        <v>GRELE</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3539,27 +3539,27 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>2.2999999999999998</v>
+        <v>3.81</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0.22</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
+        <v>3.81</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>3.99</v>
+        <v>3.06</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
-        <v>GRELE</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -3570,27 +3570,27 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2.57</v>
+        <v>0.93</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
-        <v>0.22</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
+        <v>3.81</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>2.57</v>
+        <v>0.93</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
-        <v>GRELE</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3601,23 +3601,23 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
+        <v>3.81</v>
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
-        <v>2.57</v>
+        <v>0.93</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -3632,27 +3632,27 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
+        <v>3.81</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>2.57</v>
+        <v>0.93</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
-        <v>ENSOLEILLE</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3663,27 +3663,27 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>2.61</v>
+        <v>3.94</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>2.61</v>
+        <v>3.94</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>2.57</v>
+        <v>0.93</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
-        <v>ENSOLEILLE</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -3694,27 +3694,27 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>2.61</v>
+        <v>3.94</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
-        <v>ENSOLEILLE</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3725,27 +3725,27 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>2.61</v>
+        <v>3.94</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
-        <v>ENSOLEILLE</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3756,27 +3756,27 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>5.58</v>
+        <v>3.23</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>5.58</v>
+        <v>3.23</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>2.61</v>
+        <v>3.94</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3787,27 +3787,27 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>5.58</v>
+        <v>3.23</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>1.42</v>
+        <v>2.08</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3818,27 +3818,27 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>5.58</v>
+        <v>3.23</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3849,27 +3849,27 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0.35</v>
+        <v>2.39</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>2.39</v>
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>5.58</v>
+        <v>3.23</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3880,27 +3880,27 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>3.92</v>
+        <v>1.99</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>2.39</v>
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>3.92</v>
+        <v>1.99</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>4.12</v>
+        <v>3.99</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
-        <v>PLUIE</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3911,27 +3911,27 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>0.62</v>
+        <v>3.94</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>2.39</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>3.92</v>
+        <v>1.99</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>0.62</v>
+        <v>3.94</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3942,27 +3942,27 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2.13</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>2.39</v>
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>3.92</v>
+        <v>1.99</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>0.62</v>
+        <v>3.94</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
-        <v>2.13</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3973,27 +3973,27 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0.66</v>
+        <v>1.9</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>1.9</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>3.92</v>
+        <v>1.99</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>0.62</v>
+        <v>3.94</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
-        <v>2.13</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -4004,27 +4004,27 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.13</v>
+        <v>4.12</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>1.9</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>0.13</v>
+        <v>4.12</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>0.62</v>
+        <v>3.94</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
-        <v>2.13</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
-        <v>ENSOLEILLE</v>
+        <v>COUVERT</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -4035,27 +4035,27 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>0.75</v>
+        <v>3.72</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>1.9</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>0.13</v>
+        <v>4.12</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>3.72</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>2.13</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
-        <v>ENSOLEILLE</v>
+        <v>COUVERT</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -4066,27 +4066,27 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>1.9</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>0.13</v>
+        <v>4.12</v>
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>3.72</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
-        <v>ENSOLEILLE</v>
+        <v>COUVERT</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4097,23 +4097,23 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1.86</v>
+        <v>4.25</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>1.86</v>
+        <v>4.25</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>0.13</v>
+        <v>4.12</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>3.72</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -4128,27 +4128,27 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>2.72</v>
+        <v>3.01</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>1.86</v>
+        <v>4.25</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>2.72</v>
+        <v>3.01</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>3.72</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -4159,27 +4159,27 @@
         <v>2</v>
       </c>
       <c r="C52">
-        <v>0.4</v>
+        <v>1.64</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>1.86</v>
+        <v>4.25</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>2.72</v>
+        <v>3.01</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>1.64</v>
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -4190,27 +4190,27 @@
         <v>3</v>
       </c>
       <c r="C53">
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>1.86</v>
+        <v>4.25</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>2.72</v>
+        <v>3.01</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>1.64</v>
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4221,23 +4221,23 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>2.72</v>
+        <v>3.01</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>1.64</v>
       </c>
       <c r="G54">
         <f t="shared" si="4"/>
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -4252,27 +4252,27 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>1.64</v>
       </c>
       <c r="G55">
         <f t="shared" si="4"/>
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4283,27 +4283,27 @@
         <v>2</v>
       </c>
       <c r="C56">
-        <v>1.02</v>
+        <v>3.41</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>3.41</v>
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
-        <v>1.99</v>
+        <v>2.35</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -4314,27 +4314,27 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>1.64</v>
+        <v>0.44</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>3.06</v>
+        <v>3.23</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>3.41</v>
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
-        <v>1.64</v>
+        <v>0.44</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4345,27 +4345,27 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1.73</v>
+        <v>0.84</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>1.73</v>
+        <v>0.84</v>
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>3.41</v>
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
-        <v>1.64</v>
+        <v>0.44</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -4376,27 +4376,27 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>6.58</v>
+        <v>2.7</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>1.73</v>
+        <v>0.84</v>
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>6.58</v>
+        <v>2.7</v>
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>3.41</v>
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
-        <v>1.64</v>
+        <v>0.44</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4407,23 +4407,23 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>2.17</v>
+        <v>1.02</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>1.73</v>
+        <v>0.84</v>
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>6.58</v>
+        <v>2.7</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
-        <v>2.17</v>
+        <v>1.02</v>
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
-        <v>1.64</v>
+        <v>0.44</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
@@ -4438,23 +4438,23 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>3.41</v>
+        <v>1.2</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>1.73</v>
+        <v>0.84</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>6.58</v>
+        <v>2.7</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
-        <v>2.17</v>
+        <v>1.02</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
-        <v>3.41</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
@@ -4469,27 +4469,27 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1.46</v>
+        <v>4.07</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>1.46</v>
+        <v>4.07</v>
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>6.58</v>
+        <v>2.7</v>
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
-        <v>2.17</v>
+        <v>1.02</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
-        <v>3.41</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4500,27 +4500,27 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>1.46</v>
+        <v>4.07</v>
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
-        <v>2.17</v>
+        <v>1.02</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
-        <v>3.41</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -4531,27 +4531,27 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>4.03</v>
+        <v>3.81</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>1.46</v>
+        <v>4.07</v>
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="F64">
         <f t="shared" si="3"/>
-        <v>4.03</v>
+        <v>3.81</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
-        <v>3.41</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>PLUIE</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4562,27 +4562,27 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>4.03</v>
+        <v>3.68</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>1.46</v>
+        <v>4.07</v>
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
-        <v>4.03</v>
+        <v>3.81</v>
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>4.03</v>
+        <v>3.68</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>GRELE</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4593,27 +4593,27 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="D66">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="F66">
         <f t="shared" si="3"/>
-        <v>4.03</v>
+        <v>3.81</v>
       </c>
       <c r="G66">
         <f t="shared" si="4"/>
-        <v>4.03</v>
+        <v>3.68</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>GRELE</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4624,27 +4624,27 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>5.78</v>
+        <v>2.97</v>
       </c>
       <c r="D67">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="E67">
         <f t="shared" si="2"/>
-        <v>5.78</v>
+        <v>2.97</v>
       </c>
       <c r="F67">
         <f t="shared" si="3"/>
-        <v>4.03</v>
+        <v>3.81</v>
       </c>
       <c r="G67">
         <f t="shared" si="4"/>
-        <v>4.03</v>
+        <v>3.68</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H121" si="5">IF(D67&gt;E67,"ENSOLEILLE",(IF(E67&gt;F67,"COUVERT",(IF(F67&gt;G67,"PLUIE","GRELE")))))</f>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4655,23 +4655,23 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>0.4</v>
+        <v>1.02</v>
       </c>
       <c r="D68">
         <f t="shared" ref="D68:D121" si="6">IF(B68=0,C68,D67)</f>
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="E68">
         <f t="shared" ref="E68:E121" si="7">IF(B68=1,C68,E67)</f>
-        <v>5.78</v>
+        <v>2.97</v>
       </c>
       <c r="F68">
         <f t="shared" ref="F68:F121" si="8">IF(B68=2,C68,F67)</f>
-        <v>0.4</v>
+        <v>1.02</v>
       </c>
       <c r="G68">
         <f t="shared" ref="G68:G121" si="9">IF(B68=3,C68,G67)</f>
-        <v>4.03</v>
+        <v>3.68</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="5"/>
@@ -4686,23 +4686,23 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>1.99</v>
+        <v>0.75</v>
       </c>
       <c r="D69">
         <f t="shared" si="6"/>
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="E69">
         <f t="shared" si="7"/>
-        <v>5.78</v>
+        <v>2.97</v>
       </c>
       <c r="F69">
         <f t="shared" si="8"/>
-        <v>0.4</v>
+        <v>1.02</v>
       </c>
       <c r="G69">
         <f t="shared" si="9"/>
-        <v>1.99</v>
+        <v>0.75</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="5"/>
@@ -4717,23 +4717,23 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>2.97</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D70">
         <f t="shared" si="6"/>
-        <v>2.97</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E70">
         <f t="shared" si="7"/>
-        <v>5.78</v>
+        <v>2.97</v>
       </c>
       <c r="F70">
         <f t="shared" si="8"/>
-        <v>0.4</v>
+        <v>1.02</v>
       </c>
       <c r="G70">
         <f t="shared" si="9"/>
-        <v>1.99</v>
+        <v>0.75</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="5"/>
@@ -4748,27 +4748,27 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>6.11</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="D71">
         <f t="shared" si="6"/>
-        <v>2.97</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E71">
         <f t="shared" si="7"/>
-        <v>6.11</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F71">
         <f t="shared" si="8"/>
-        <v>0.4</v>
+        <v>1.02</v>
       </c>
       <c r="G71">
         <f t="shared" si="9"/>
-        <v>1.99</v>
+        <v>0.75</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4779,27 +4779,27 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>3.23</v>
+        <v>2.57</v>
       </c>
       <c r="D72">
         <f t="shared" si="6"/>
-        <v>2.97</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E72">
         <f t="shared" si="7"/>
-        <v>6.11</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F72">
         <f t="shared" si="8"/>
-        <v>3.23</v>
+        <v>2.57</v>
       </c>
       <c r="G72">
         <f t="shared" si="9"/>
-        <v>1.99</v>
+        <v>0.75</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4810,27 +4810,27 @@
         <v>3</v>
       </c>
       <c r="C73">
-        <v>0.93</v>
+        <v>2.83</v>
       </c>
       <c r="D73">
         <f t="shared" si="6"/>
-        <v>2.97</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E73">
         <f t="shared" si="7"/>
-        <v>6.11</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F73">
         <f t="shared" si="8"/>
-        <v>3.23</v>
+        <v>2.57</v>
       </c>
       <c r="G73">
         <f t="shared" si="9"/>
-        <v>0.93</v>
+        <v>2.83</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4841,27 +4841,27 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1.28</v>
+        <v>3.5</v>
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>1.28</v>
+        <v>3.5</v>
       </c>
       <c r="E74">
         <f t="shared" si="7"/>
-        <v>6.11</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F74">
         <f t="shared" si="8"/>
-        <v>3.23</v>
+        <v>2.57</v>
       </c>
       <c r="G74">
         <f t="shared" si="9"/>
-        <v>0.93</v>
+        <v>2.83</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,23 +4872,23 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>4.58</v>
+        <v>3.94</v>
       </c>
       <c r="D75">
         <f t="shared" si="6"/>
-        <v>1.28</v>
+        <v>3.5</v>
       </c>
       <c r="E75">
         <f t="shared" si="7"/>
-        <v>4.58</v>
+        <v>3.94</v>
       </c>
       <c r="F75">
         <f t="shared" si="8"/>
-        <v>3.23</v>
+        <v>2.57</v>
       </c>
       <c r="G75">
         <f t="shared" si="9"/>
-        <v>0.93</v>
+        <v>2.83</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="5"/>
@@ -4903,23 +4903,23 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>3.19</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D76">
         <f t="shared" si="6"/>
-        <v>1.28</v>
+        <v>3.5</v>
       </c>
       <c r="E76">
         <f t="shared" si="7"/>
-        <v>4.58</v>
+        <v>3.94</v>
       </c>
       <c r="F76">
         <f t="shared" si="8"/>
-        <v>3.19</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G76">
         <f t="shared" si="9"/>
-        <v>0.93</v>
+        <v>2.83</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="5"/>
@@ -4934,23 +4934,23 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="D77">
         <f t="shared" si="6"/>
-        <v>1.28</v>
+        <v>3.5</v>
       </c>
       <c r="E77">
         <f t="shared" si="7"/>
-        <v>4.58</v>
+        <v>3.94</v>
       </c>
       <c r="F77">
         <f t="shared" si="8"/>
-        <v>3.19</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G77">
         <f t="shared" si="9"/>
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="5"/>
@@ -4965,23 +4965,23 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="E78">
         <f t="shared" si="7"/>
-        <v>4.58</v>
+        <v>3.94</v>
       </c>
       <c r="F78">
         <f t="shared" si="8"/>
-        <v>3.19</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G78">
         <f t="shared" si="9"/>
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="5"/>
@@ -4996,23 +4996,23 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0.53</v>
+        <v>3.23</v>
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="E79">
         <f t="shared" si="7"/>
-        <v>0.53</v>
+        <v>3.23</v>
       </c>
       <c r="F79">
         <f t="shared" si="8"/>
-        <v>3.19</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G79">
         <f t="shared" si="9"/>
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="5"/>
@@ -5027,23 +5027,23 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="E80">
         <f t="shared" si="7"/>
-        <v>0.53</v>
+        <v>3.23</v>
       </c>
       <c r="F80">
         <f t="shared" si="8"/>
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="G80">
         <f t="shared" si="9"/>
-        <v>4.21</v>
+        <v>3.23</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="5"/>
@@ -5058,23 +5058,23 @@
         <v>3</v>
       </c>
       <c r="C81">
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="D81">
         <f t="shared" si="6"/>
-        <v>3.41</v>
+        <v>3.94</v>
       </c>
       <c r="E81">
         <f t="shared" si="7"/>
-        <v>0.53</v>
+        <v>3.23</v>
       </c>
       <c r="F81">
         <f t="shared" si="8"/>
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="G81">
         <f t="shared" si="9"/>
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="5"/>
@@ -5089,27 +5089,27 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>3.9</v>
+        <v>2.83</v>
       </c>
       <c r="D82">
         <f t="shared" si="6"/>
-        <v>3.9</v>
+        <v>2.83</v>
       </c>
       <c r="E82">
         <f t="shared" si="7"/>
-        <v>0.53</v>
+        <v>3.23</v>
       </c>
       <c r="F82">
         <f t="shared" si="8"/>
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="G82">
         <f t="shared" si="9"/>
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="5"/>
-        <v>ENSOLEILLE</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -5120,27 +5120,27 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>4.9800000000000004</v>
+        <v>1.28</v>
       </c>
       <c r="D83">
         <f t="shared" si="6"/>
-        <v>3.9</v>
+        <v>2.83</v>
       </c>
       <c r="E83">
         <f t="shared" si="7"/>
-        <v>4.9800000000000004</v>
+        <v>1.28</v>
       </c>
       <c r="F83">
         <f t="shared" si="8"/>
-        <v>3.32</v>
+        <v>3.5</v>
       </c>
       <c r="G83">
         <f t="shared" si="9"/>
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -5151,27 +5151,27 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>1.2</v>
+        <v>0.13</v>
       </c>
       <c r="D84">
         <f t="shared" si="6"/>
-        <v>3.9</v>
+        <v>2.83</v>
       </c>
       <c r="E84">
         <f t="shared" si="7"/>
-        <v>4.9800000000000004</v>
+        <v>1.28</v>
       </c>
       <c r="F84">
         <f t="shared" si="8"/>
-        <v>1.2</v>
+        <v>0.13</v>
       </c>
       <c r="G84">
         <f t="shared" si="9"/>
-        <v>2.44</v>
+        <v>2.57</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -5182,27 +5182,27 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>1.24</v>
+        <v>3.72</v>
       </c>
       <c r="D85">
         <f t="shared" si="6"/>
-        <v>3.9</v>
+        <v>2.83</v>
       </c>
       <c r="E85">
         <f t="shared" si="7"/>
-        <v>4.9800000000000004</v>
+        <v>1.28</v>
       </c>
       <c r="F85">
         <f t="shared" si="8"/>
-        <v>1.2</v>
+        <v>0.13</v>
       </c>
       <c r="G85">
         <f t="shared" si="9"/>
-        <v>1.24</v>
+        <v>3.72</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -5213,27 +5213,27 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>1.51</v>
+        <v>3.01</v>
       </c>
       <c r="D86">
         <f t="shared" si="6"/>
-        <v>1.51</v>
+        <v>3.01</v>
       </c>
       <c r="E86">
         <f t="shared" si="7"/>
-        <v>4.9800000000000004</v>
+        <v>1.28</v>
       </c>
       <c r="F86">
         <f t="shared" si="8"/>
-        <v>1.2</v>
+        <v>0.13</v>
       </c>
       <c r="G86">
         <f t="shared" si="9"/>
-        <v>1.24</v>
+        <v>3.72</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -5244,27 +5244,27 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>5.58</v>
+        <v>1.55</v>
       </c>
       <c r="D87">
         <f t="shared" si="6"/>
-        <v>1.51</v>
+        <v>3.01</v>
       </c>
       <c r="E87">
         <f t="shared" si="7"/>
-        <v>5.58</v>
+        <v>1.55</v>
       </c>
       <c r="F87">
         <f t="shared" si="8"/>
-        <v>1.2</v>
+        <v>0.13</v>
       </c>
       <c r="G87">
         <f t="shared" si="9"/>
-        <v>1.24</v>
+        <v>3.72</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -5275,27 +5275,27 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>0.09</v>
+        <v>3.23</v>
       </c>
       <c r="D88">
         <f t="shared" si="6"/>
-        <v>1.51</v>
+        <v>3.01</v>
       </c>
       <c r="E88">
         <f t="shared" si="7"/>
-        <v>5.58</v>
+        <v>1.55</v>
       </c>
       <c r="F88">
         <f t="shared" si="8"/>
-        <v>0.09</v>
+        <v>3.23</v>
       </c>
       <c r="G88">
         <f t="shared" si="9"/>
-        <v>1.24</v>
+        <v>3.72</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -5306,27 +5306,27 @@
         <v>3</v>
       </c>
       <c r="C89">
-        <v>3.14</v>
+        <v>2.44</v>
       </c>
       <c r="D89">
         <f t="shared" si="6"/>
-        <v>1.51</v>
+        <v>3.01</v>
       </c>
       <c r="E89">
         <f t="shared" si="7"/>
-        <v>5.58</v>
+        <v>1.55</v>
       </c>
       <c r="F89">
         <f t="shared" si="8"/>
-        <v>0.09</v>
+        <v>3.23</v>
       </c>
       <c r="G89">
         <f t="shared" si="9"/>
-        <v>3.14</v>
+        <v>2.44</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -5337,27 +5337,27 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="D90">
         <f t="shared" si="6"/>
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="E90">
         <f t="shared" si="7"/>
-        <v>5.58</v>
+        <v>1.55</v>
       </c>
       <c r="F90">
         <f t="shared" si="8"/>
-        <v>0.09</v>
+        <v>3.23</v>
       </c>
       <c r="G90">
         <f t="shared" si="9"/>
-        <v>3.14</v>
+        <v>2.44</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -5368,23 +5368,23 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>0.93</v>
+        <v>0.49</v>
       </c>
       <c r="D91">
         <f t="shared" si="6"/>
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="E91">
         <f t="shared" si="7"/>
-        <v>0.93</v>
+        <v>0.49</v>
       </c>
       <c r="F91">
         <f t="shared" si="8"/>
-        <v>0.09</v>
+        <v>3.23</v>
       </c>
       <c r="G91">
         <f t="shared" si="9"/>
-        <v>3.14</v>
+        <v>2.44</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="5"/>
@@ -5399,23 +5399,23 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>1.73</v>
+        <v>0.62</v>
       </c>
       <c r="D92">
         <f t="shared" si="6"/>
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="E92">
         <f t="shared" si="7"/>
-        <v>0.93</v>
+        <v>0.49</v>
       </c>
       <c r="F92">
         <f t="shared" si="8"/>
-        <v>1.73</v>
+        <v>0.62</v>
       </c>
       <c r="G92">
         <f t="shared" si="9"/>
-        <v>3.14</v>
+        <v>2.44</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="5"/>
@@ -5430,23 +5430,23 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>2.7</v>
+        <v>1.28</v>
       </c>
       <c r="D93">
         <f t="shared" si="6"/>
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="E93">
         <f t="shared" si="7"/>
-        <v>0.93</v>
+        <v>0.49</v>
       </c>
       <c r="F93">
         <f t="shared" si="8"/>
-        <v>1.73</v>
+        <v>0.62</v>
       </c>
       <c r="G93">
         <f t="shared" si="9"/>
-        <v>2.7</v>
+        <v>1.28</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="5"/>
@@ -5461,23 +5461,23 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="D94">
         <f t="shared" si="6"/>
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="E94">
         <f t="shared" si="7"/>
-        <v>0.93</v>
+        <v>0.49</v>
       </c>
       <c r="F94">
         <f t="shared" si="8"/>
-        <v>1.73</v>
+        <v>0.62</v>
       </c>
       <c r="G94">
         <f t="shared" si="9"/>
-        <v>2.7</v>
+        <v>1.28</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="5"/>
@@ -5492,27 +5492,27 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>5.71</v>
+        <v>1.37</v>
       </c>
       <c r="D95">
         <f t="shared" si="6"/>
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="E95">
         <f t="shared" si="7"/>
-        <v>5.71</v>
+        <v>1.37</v>
       </c>
       <c r="F95">
         <f t="shared" si="8"/>
-        <v>1.73</v>
+        <v>0.62</v>
       </c>
       <c r="G95">
         <f t="shared" si="9"/>
-        <v>2.7</v>
+        <v>1.28</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -5523,27 +5523,27 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>1.06</v>
+        <v>2.79</v>
       </c>
       <c r="D96">
         <f t="shared" si="6"/>
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="E96">
         <f t="shared" si="7"/>
-        <v>5.71</v>
+        <v>1.37</v>
       </c>
       <c r="F96">
         <f t="shared" si="8"/>
-        <v>1.06</v>
+        <v>2.79</v>
       </c>
       <c r="G96">
         <f t="shared" si="9"/>
-        <v>2.7</v>
+        <v>1.28</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -5554,27 +5554,27 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>4.03</v>
+        <v>2.21</v>
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
-        <v>1.99</v>
+        <v>2.7</v>
       </c>
       <c r="E97">
         <f t="shared" si="7"/>
-        <v>5.71</v>
+        <v>1.37</v>
       </c>
       <c r="F97">
         <f t="shared" si="8"/>
-        <v>1.06</v>
+        <v>2.79</v>
       </c>
       <c r="G97">
         <f t="shared" si="9"/>
-        <v>4.03</v>
+        <v>2.21</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -5585,27 +5585,27 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>1.55</v>
+        <v>0.89</v>
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>1.55</v>
+        <v>0.89</v>
       </c>
       <c r="E98">
         <f t="shared" si="7"/>
-        <v>5.71</v>
+        <v>1.37</v>
       </c>
       <c r="F98">
         <f t="shared" si="8"/>
-        <v>1.06</v>
+        <v>2.79</v>
       </c>
       <c r="G98">
         <f t="shared" si="9"/>
-        <v>4.03</v>
+        <v>2.21</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -5616,23 +5616,23 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>4.12</v>
+        <v>2.92</v>
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>1.55</v>
+        <v>0.89</v>
       </c>
       <c r="E99">
         <f t="shared" si="7"/>
-        <v>4.12</v>
+        <v>2.92</v>
       </c>
       <c r="F99">
         <f t="shared" si="8"/>
-        <v>1.06</v>
+        <v>2.79</v>
       </c>
       <c r="G99">
         <f t="shared" si="9"/>
-        <v>4.03</v>
+        <v>2.21</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="5"/>
@@ -5647,27 +5647,27 @@
         <v>2</v>
       </c>
       <c r="C100">
-        <v>1.73</v>
+        <v>3.41</v>
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>1.55</v>
+        <v>0.89</v>
       </c>
       <c r="E100">
         <f t="shared" si="7"/>
-        <v>4.12</v>
+        <v>2.92</v>
       </c>
       <c r="F100">
         <f t="shared" si="8"/>
-        <v>1.73</v>
+        <v>3.41</v>
       </c>
       <c r="G100">
         <f t="shared" si="9"/>
-        <v>4.03</v>
+        <v>2.21</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -5678,27 +5678,27 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>0.4</v>
+        <v>1.28</v>
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>1.55</v>
+        <v>0.89</v>
       </c>
       <c r="E101">
         <f t="shared" si="7"/>
-        <v>4.12</v>
+        <v>2.92</v>
       </c>
       <c r="F101">
         <f t="shared" si="8"/>
-        <v>1.73</v>
+        <v>3.41</v>
       </c>
       <c r="G101">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>1.28</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -5709,27 +5709,27 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>0.44</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D102">
         <f t="shared" si="6"/>
-        <v>0.44</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E102">
         <f t="shared" si="7"/>
-        <v>4.12</v>
+        <v>2.92</v>
       </c>
       <c r="F102">
         <f t="shared" si="8"/>
-        <v>1.73</v>
+        <v>3.41</v>
       </c>
       <c r="G102">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>1.28</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>PLUIE</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -5740,27 +5740,27 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>5.65</v>
+        <v>1.06</v>
       </c>
       <c r="D103">
         <f t="shared" si="6"/>
-        <v>0.44</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E103">
         <f t="shared" si="7"/>
-        <v>5.65</v>
+        <v>1.06</v>
       </c>
       <c r="F103">
         <f t="shared" si="8"/>
-        <v>1.73</v>
+        <v>3.41</v>
       </c>
       <c r="G103">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>1.28</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -5771,27 +5771,27 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>0.18</v>
+        <v>2.97</v>
       </c>
       <c r="D104">
         <f t="shared" si="6"/>
-        <v>0.44</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E104">
         <f t="shared" si="7"/>
-        <v>5.65</v>
+        <v>1.06</v>
       </c>
       <c r="F104">
         <f t="shared" si="8"/>
-        <v>0.18</v>
+        <v>2.97</v>
       </c>
       <c r="G104">
         <f t="shared" si="9"/>
-        <v>0.4</v>
+        <v>1.28</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -5802,27 +5802,27 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>0.44</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E105">
         <f t="shared" si="7"/>
-        <v>5.65</v>
+        <v>1.06</v>
       </c>
       <c r="F105">
         <f t="shared" si="8"/>
-        <v>0.18</v>
+        <v>2.97</v>
       </c>
       <c r="G105">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -5833,27 +5833,27 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>2.21</v>
+        <v>3.41</v>
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>2.21</v>
+        <v>3.41</v>
       </c>
       <c r="E106">
         <f t="shared" si="7"/>
-        <v>5.65</v>
+        <v>1.06</v>
       </c>
       <c r="F106">
         <f t="shared" si="8"/>
-        <v>0.18</v>
+        <v>2.97</v>
       </c>
       <c r="G106">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -5864,23 +5864,23 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>5.98</v>
+        <v>3.54</v>
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>2.21</v>
+        <v>3.41</v>
       </c>
       <c r="E107">
         <f t="shared" si="7"/>
-        <v>5.98</v>
+        <v>3.54</v>
       </c>
       <c r="F107">
         <f t="shared" si="8"/>
-        <v>0.18</v>
+        <v>2.97</v>
       </c>
       <c r="G107">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="5"/>
@@ -5895,27 +5895,27 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>2.21</v>
+        <v>3.41</v>
       </c>
       <c r="E108">
         <f t="shared" si="7"/>
-        <v>5.98</v>
+        <v>3.54</v>
       </c>
       <c r="F108">
         <f t="shared" si="8"/>
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="G108">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.63</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>GRELE</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -5926,27 +5926,27 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>2.57</v>
+        <v>4.34</v>
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
-        <v>2.21</v>
+        <v>3.41</v>
       </c>
       <c r="E109">
         <f t="shared" si="7"/>
-        <v>5.98</v>
+        <v>3.54</v>
       </c>
       <c r="F109">
         <f t="shared" si="8"/>
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="G109">
         <f t="shared" si="9"/>
-        <v>2.57</v>
+        <v>4.34</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>GRELE</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -5957,27 +5957,27 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>3.37</v>
+        <v>2.83</v>
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>3.37</v>
+        <v>2.83</v>
       </c>
       <c r="E110">
         <f t="shared" si="7"/>
-        <v>5.98</v>
+        <v>3.54</v>
       </c>
       <c r="F110">
         <f t="shared" si="8"/>
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="G110">
         <f t="shared" si="9"/>
-        <v>2.57</v>
+        <v>4.34</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>GRELE</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -5988,23 +5988,23 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>6.24</v>
+        <v>3.63</v>
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>3.37</v>
+        <v>2.83</v>
       </c>
       <c r="E111">
         <f t="shared" si="7"/>
-        <v>6.24</v>
+        <v>3.63</v>
       </c>
       <c r="F111">
         <f t="shared" si="8"/>
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="G111">
         <f t="shared" si="9"/>
-        <v>2.57</v>
+        <v>4.34</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="5"/>
@@ -6019,23 +6019,23 @@
         <v>2</v>
       </c>
       <c r="C112">
-        <v>3.94</v>
+        <v>3.19</v>
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>3.37</v>
+        <v>2.83</v>
       </c>
       <c r="E112">
         <f t="shared" si="7"/>
-        <v>6.24</v>
+        <v>3.63</v>
       </c>
       <c r="F112">
         <f t="shared" si="8"/>
-        <v>3.94</v>
+        <v>3.19</v>
       </c>
       <c r="G112">
         <f t="shared" si="9"/>
-        <v>2.57</v>
+        <v>4.34</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="5"/>
@@ -6050,23 +6050,23 @@
         <v>3</v>
       </c>
       <c r="C113">
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>3.37</v>
+        <v>2.83</v>
       </c>
       <c r="E113">
         <f t="shared" si="7"/>
-        <v>6.24</v>
+        <v>3.63</v>
       </c>
       <c r="F113">
         <f t="shared" si="8"/>
-        <v>3.94</v>
+        <v>3.19</v>
       </c>
       <c r="G113">
         <f t="shared" si="9"/>
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="5"/>
@@ -6081,23 +6081,23 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>2.48</v>
+        <v>2.79</v>
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>2.48</v>
+        <v>2.79</v>
       </c>
       <c r="E114">
         <f t="shared" si="7"/>
-        <v>6.24</v>
+        <v>3.63</v>
       </c>
       <c r="F114">
         <f t="shared" si="8"/>
-        <v>3.94</v>
+        <v>3.19</v>
       </c>
       <c r="G114">
         <f t="shared" si="9"/>
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="5"/>
@@ -6112,27 +6112,27 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>2.66</v>
+        <v>0.84</v>
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>2.48</v>
+        <v>2.79</v>
       </c>
       <c r="E115">
         <f t="shared" si="7"/>
-        <v>2.66</v>
+        <v>0.84</v>
       </c>
       <c r="F115">
         <f t="shared" si="8"/>
-        <v>3.94</v>
+        <v>3.19</v>
       </c>
       <c r="G115">
         <f t="shared" si="9"/>
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="5"/>
-        <v>PLUIE</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -6143,27 +6143,27 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>2.48</v>
+        <v>2.79</v>
       </c>
       <c r="E116">
         <f t="shared" si="7"/>
-        <v>2.66</v>
+        <v>0.84</v>
       </c>
       <c r="F116">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="G116">
         <f t="shared" si="9"/>
-        <v>2.88</v>
+        <v>2.57</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -6174,27 +6174,27 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>3.28</v>
+        <v>1.73</v>
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>2.48</v>
+        <v>2.79</v>
       </c>
       <c r="E117">
         <f t="shared" si="7"/>
-        <v>2.66</v>
+        <v>0.84</v>
       </c>
       <c r="F117">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="G117">
         <f t="shared" si="9"/>
-        <v>3.28</v>
+        <v>1.73</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -6205,27 +6205,27 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>2.08</v>
+        <v>2.88</v>
       </c>
       <c r="D118">
         <f t="shared" si="6"/>
-        <v>2.08</v>
+        <v>2.88</v>
       </c>
       <c r="E118">
         <f t="shared" si="7"/>
-        <v>2.66</v>
+        <v>0.84</v>
       </c>
       <c r="F118">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="G118">
         <f t="shared" si="9"/>
-        <v>3.28</v>
+        <v>1.73</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -6236,27 +6236,27 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>6.38</v>
+        <v>0.4</v>
       </c>
       <c r="D119">
         <f t="shared" si="6"/>
-        <v>2.08</v>
+        <v>2.88</v>
       </c>
       <c r="E119">
         <f t="shared" si="7"/>
-        <v>6.38</v>
+        <v>0.4</v>
       </c>
       <c r="F119">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="G119">
         <f t="shared" si="9"/>
-        <v>3.28</v>
+        <v>1.73</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -6267,27 +6267,27 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>3.01</v>
+        <v>4.21</v>
       </c>
       <c r="D120">
         <f t="shared" si="6"/>
-        <v>2.08</v>
+        <v>2.88</v>
       </c>
       <c r="E120">
         <f t="shared" si="7"/>
-        <v>6.38</v>
+        <v>0.4</v>
       </c>
       <c r="F120">
         <f t="shared" si="8"/>
-        <v>3.01</v>
+        <v>4.21</v>
       </c>
       <c r="G120">
         <f t="shared" si="9"/>
-        <v>3.28</v>
+        <v>1.73</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -6298,27 +6298,27 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>3.99</v>
+        <v>1.42</v>
       </c>
       <c r="D121">
         <f t="shared" si="6"/>
-        <v>2.08</v>
+        <v>2.88</v>
       </c>
       <c r="E121">
         <f t="shared" si="7"/>
-        <v>6.38</v>
+        <v>0.4</v>
       </c>
       <c r="F121">
         <f t="shared" si="8"/>
-        <v>3.01</v>
+        <v>4.21</v>
       </c>
       <c r="G121">
         <f t="shared" si="9"/>
-        <v>3.99</v>
+        <v>1.42</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="5"/>
-        <v>COUVERT</v>
+        <v>ENSOLEILLE</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="H123">
         <f>COUNTIF(H2:H121,"ENSOLEILLE")</f>
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="H124">
         <f>COUNTIF($H$2:$H$121,"COUVERT")</f>
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="H125">
         <f>COUNTIF($H$2:$H$121,"PLUIE")</f>
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="H126">
         <f>COUNTIF($H$2:$H$121,"GRELE")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6366,7 +6366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>

--- a/trunk/ projet-ia/tests/Resultats/Resultat_Simu_hsoleil.xlsx
+++ b/trunk/ projet-ia/tests/Resultats/Resultat_Simu_hsoleil.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Simu_hsoleil" sheetId="1" r:id="rId1"/>
     <sheet name="Graphique" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1018,17 +1018,14 @@
           </c:marker>
           <c:dPt>
             <c:idx val="5"/>
-            <c:marker/>
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
-            <c:marker/>
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:dPt>
             <c:idx val="57"/>
-            <c:marker/>
             <c:bubble3D val="0"/>
           </c:dPt>
           <c:yVal>
@@ -2193,11 +2190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="73589120"/>
-        <c:axId val="73590656"/>
+        <c:axId val="80061184"/>
+        <c:axId val="80062720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73589120"/>
+        <c:axId val="80061184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,11 +2203,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73590656"/>
+        <c:crossAx val="80062720"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73590656"/>
+        <c:axId val="80062720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,13 +2219,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73589120"/>
+        <c:crossAx val="80061184"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2576,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I126" sqref="I126"/>
     </sheetView>
   </sheetViews>
